--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacClose.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacClose.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED26713-D54E-41D8-BE64-185B08A762A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AE40E7-C57D-4A55-A4AF-F2B25622C43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="127">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -579,6 +579,18 @@
   <si>
     <t>雙掛號</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findClosedAndReceived</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseDate &gt; ,AND ReceiveFg = ,AND ReceiveDate &lt;=</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo ASC,FacmNo ASC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1174,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1939,11 +1951,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2053,6 +2065,17 @@
         <v>114</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacClose.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacClose.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AE40E7-C57D-4A55-A4AF-F2B25622C43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D775E30E-D15E-45A0-A720-CA089CD7647F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="125">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -570,14 +570,6 @@
   </si>
   <si>
     <t>ReceiveFg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisteredAddress</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>雙掛號</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1184,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1581,56 +1573,56 @@
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
-        <v>14</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="19">
-        <v>200</v>
-      </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="17">
+        <v>8</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
+        <v>16</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="17">
         <v>15</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="17">
-        <v>8</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
-        <v>16</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>78</v>
+        <v>17</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E24" s="17">
         <v>15</v>
@@ -1640,13 +1632,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
-        <v>17</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>61</v>
+        <v>18</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>115</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>49</v>
@@ -1659,133 +1651,135 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
-        <v>18</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>115</v>
+        <v>19</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>101</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E26" s="17">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E27" s="17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="E28" s="17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="19">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="E29" s="17">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="19">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>50</v>
       </c>
       <c r="E30" s="17">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="19">
-        <v>23</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="17">
-        <v>100</v>
-      </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
+        <v>24</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="20">
+        <v>1</v>
+      </c>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="19">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E32" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="20"/>
       <c r="G32" s="20" t="s">
@@ -1794,144 +1788,123 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D33" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E33" s="20">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F33" s="20"/>
-      <c r="G33" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="1:7" s="18" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A34" s="19">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D34" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E34" s="20">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-    </row>
-    <row r="35" spans="1:7" s="18" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="G34" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
-        <v>27</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="20">
-        <v>1</v>
-      </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="B35" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="17"/>
+        <v>32</v>
+      </c>
+      <c r="E36" s="17">
+        <v>6</v>
+      </c>
       <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="19">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="17">
-        <v>6</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E37" s="17"/>
       <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="19">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="17"/>
+        <v>32</v>
+      </c>
+      <c r="E38" s="17">
+        <v>6</v>
+      </c>
       <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="19">
-        <v>31</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="17">
-        <v>6</v>
-      </c>
-      <c r="F39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1953,7 +1926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
@@ -2067,13 +2040,13 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacClose.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacClose.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D775E30E-D15E-45A0-A720-CA089CD7647F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6429C60-B35A-43C9-87DF-D5C903295AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="127">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -582,6 +582,14 @@
   </si>
   <si>
     <t>CustNo ASC,FacmNo ASC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>findCustNoRange</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo &gt;= ,AND CustNo &lt;= </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1178,7 +1186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -1924,11 +1932,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2049,6 +2057,17 @@
         <v>124</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacClose.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacClose.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6429C60-B35A-43C9-87DF-D5C903295AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F94BE75-9095-4CA0-8667-F661D011789F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="128">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -590,6 +590,10 @@
   </si>
   <si>
     <t xml:space="preserve">CustNo &gt;= ,AND CustNo &lt;= </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>findFacmNoMaxCloseNoFirst</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1932,11 +1936,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2068,6 +2072,17 @@
         <v>114</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacClose.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacClose.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F94BE75-9095-4CA0-8667-F661D011789F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49F3712-F7C4-47E7-A53D-CF63DCE818B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,12 @@
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="130">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -594,6 +594,14 @@
   </si>
   <si>
     <t>findFacmNoMaxCloseNoFirst</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>findEntryDateRange</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EntryDate &gt;= ,AND EntryDate &lt;= </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1936,11 +1944,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2083,6 +2091,17 @@
         <v>58</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacClose.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacClose.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49F3712-F7C4-47E7-A53D-CF63DCE818B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A984106C-08F4-445D-AD86-379395318881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="138">
   <si>
     <t>讀取Key條件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>其他ORDER條件</t>
   </si>
   <si>
     <t>FunNm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -125,39 +125,39 @@
   </si>
   <si>
     <t>Key ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Index3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Table</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Uni</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PrimaryKey</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Index1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Index2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>V</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>戶號</t>
@@ -182,259 +182,259 @@
   </si>
   <si>
     <t>清償作業檔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FacmNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DECIMALD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CreateEmpNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>清償序號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CustNo,FacmNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CustNo,FacmNo,CloseDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>findFacmNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>findCloseDate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CloseDate &gt;= ,AND CloseDate &lt;= </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CustNo ASC,FacmNo ASC,CloseDate ASC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>findCustNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CustNo = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CustNo = ,AND FacmNo = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CustNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>備註</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NVARCHAR2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>登放記號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ActFlag</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>領取日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>塗銷同意書編號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>公文編號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>銷號欄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CloseNo DESC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>DecimalD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TelNo2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CreateDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ApplDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ForeignKey1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>申請日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CustNo,CloseNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FunCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ReceiveDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CustNo =</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>findMaxCloseNoFirst</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CloseDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CloseNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CustNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CloseReasonCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CloseAmt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CollectWayCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rmk</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TelNo1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DocNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AgreeNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ClsNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>findCloseNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>FacClose</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>車貸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>0:非車貸
 1:車貸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CarLoan</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CloseDate = ,AND CloseNo &gt;= ,AND CloseNo &lt;= ,AND CarLoan &gt;= ,AND CarLoan &lt;=</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>入帳日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>0:清償(必須為尚未結案)
 1:請領(已申請者為請領)
 2:補領(已結案後來申請者)
 3:補發(已領過者為補發)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>作業功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>結案登錄更新</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ClCode1</t>
@@ -461,51 +461,51 @@
     <t xml:space="preserve">1:登錄
 2:放行
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CollectFlag</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>EntryDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>EntryDate =</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>findEntryDate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>findFacmNoFirst</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CustNo = ,AND FacmNo = ,AND FunCode ^i</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>是否領取清償證明(Y/N/'')</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>結案日期(入帳日期)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>自動寫入時為0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>findApplDateEq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ApplDate &gt;= ,AND ApplDate &lt;=</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>00:無
@@ -520,40 +520,40 @@
 09:其他
 10:買回
 11:綁約期還款</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>領取記號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>0:未領取
 1:已領取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CustNo ASC,FacmNo ASC,CloseNo ASC,CloseDate ASC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TelNo3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>連絡電話2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>連絡電話3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CloseInd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>結案區分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>共用代碼檔 CaseCloseCode
@@ -566,42 +566,74 @@
 6:催收戶強制執行
 7:轉列呆帳
 8:催收部分轉呆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ReceiveFg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>findClosedAndReceived</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CloseDate &gt; ,AND ReceiveFg = ,AND ReceiveDate &lt;=</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CustNo ASC,FacmNo ASC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>findCustNoRange</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CustNo &gt;= ,AND CustNo &lt;= </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>findFacmNoMaxCloseNoFirst</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>findEntryDateRange</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">EntryDate &gt;= ,AND EntryDate &lt;= </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>篩選資料日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChoiceDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>篩選資料時upd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>findChoiceDateEq</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChoiceDate = ,AND LastUpdateEmpNo =</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChoiceSeq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>篩選序號</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChoiceSeq ASC</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -609,12 +641,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -775,11 +815,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -790,77 +836,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 2 2" xfId="4" xr:uid="{BA0B71F0-E627-41CE-B85F-7F207E1C8562}"/>
+    <cellStyle name="一般 2 3" xfId="3" xr:uid="{6070CA12-395A-4D07-A188-A72D48771677}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1196,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1846,49 +1894,55 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
         <v>28</v>
       </c>
-      <c r="B35" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="19">
+        <v>8</v>
+      </c>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
         <v>29</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="17">
-        <v>6</v>
-      </c>
-      <c r="F36" s="17"/>
+      <c r="B36" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="19">
+        <v>3</v>
+      </c>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="19">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>33</v>
@@ -1898,13 +1952,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="19">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>32</v>
@@ -1915,16 +1969,50 @@
       <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
+      <c r="A39" s="19">
+        <v>33</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>33</v>
+      </c>
       <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
+      <c r="A40" s="19">
+        <v>34</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="17">
+        <v>6</v>
+      </c>
+      <c r="F40" s="17"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1936,7 +2024,7 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1944,11 +2032,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2102,8 +2190,19 @@
         <v>114</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacClose.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacClose.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A984106C-08F4-445D-AD86-379395318881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D36A08-5B78-4711-8999-DD52F757858B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,22 +16,22 @@
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="125">
   <si>
     <t>讀取Key條件</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>其他ORDER條件</t>
   </si>
   <si>
     <t>FunNm</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -125,39 +125,39 @@
   </si>
   <si>
     <t>Key ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Index3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Table</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Uni</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>PrimaryKey</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Index1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Index2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>V</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>戶號</t>
@@ -182,330 +182,309 @@
   </si>
   <si>
     <t>清償作業檔</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>FacmNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>DECIMALD</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CreateEmpNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>清償序號</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CustNo,FacmNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CustNo,FacmNo,CloseDate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>findFacmNo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>findCloseDate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CloseDate &gt;= ,AND CloseDate &lt;= </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CustNo ASC,FacmNo ASC,CloseDate ASC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>findCustNo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CustNo = </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CustNo = ,AND FacmNo = </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CustNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>備註</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>NVARCHAR2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>登放記號</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ActFlag</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>領取日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>塗銷同意書編號</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>公文編號</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>銷號欄</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CloseNo DESC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>DecimalD</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TelNo2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CreateDate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ApplDate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ForeignKey1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>申請日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CustNo,CloseNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>FunCode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ReceiveDate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CustNo =</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>findMaxCloseNoFirst</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CloseDate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CloseNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CustNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CloseReasonCode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CloseAmt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CollectWayCode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Rmk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TelNo1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>DocNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AgreeNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ClsNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>findCloseNo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>FacClose</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>車貸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0:非車貸
 1:車貸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CarLoan</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CloseDate = ,AND CloseNo &gt;= ,AND CloseNo &lt;= ,AND CarLoan &gt;= ,AND CarLoan &lt;=</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>入帳日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0:清償(必須為尚未結案)
 1:請領(已申請者為請領)
 2:補領(已結案後來申請者)
 3:補發(已領過者為補發)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>作業功能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>結案登錄更新</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClCode1</t>
-  </si>
-  <si>
-    <t>擔保品代號1</t>
-  </si>
-  <si>
-    <t>擔保品代號檔CdCl</t>
-  </si>
-  <si>
-    <t>ClCode2</t>
-  </si>
-  <si>
-    <t>擔保品代號2</t>
-  </si>
-  <si>
-    <t>ClNo</t>
-  </si>
-  <si>
-    <t>擔保品編號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1:登錄
 2:放行
 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CollectFlag</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>EntryDate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>EntryDate =</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>findEntryDate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>findFacmNoFirst</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CustNo = ,AND FacmNo = ,AND FunCode ^i</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>是否領取清償證明(Y/N/'')</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>結案日期(入帳日期)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>自動寫入時為0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>findApplDateEq</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ApplDate &gt;= ,AND ApplDate &lt;=</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>00:無
@@ -520,40 +499,31 @@
 09:其他
 10:買回
 11:綁約期還款</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>領取記號</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:未領取
-1:已領取</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CustNo ASC,FacmNo ASC,CloseNo ASC,CloseDate ASC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TelNo3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>連絡電話2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>連絡電話3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CloseInd</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>結案區分</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>共用代碼檔 CaseCloseCode
@@ -566,87 +536,77 @@
 6:催收戶強制執行
 7:轉列呆帳
 8:催收部分轉呆</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>findCustNoRange</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo &gt;= ,AND CustNo &lt;= </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>findFacmNoMaxCloseNoFirst</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>findEntryDateRange</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EntryDate &gt;= ,AND EntryDate &lt;= </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostAddress</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>郵寄地址</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ReceiveFg</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>findClosedAndReceived</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CloseDate &gt; ,AND ReceiveFg = ,AND ReceiveDate &lt;=</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo ASC,FacmNo ASC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>findCustNoRange</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo &gt;= ,AND CustNo &lt;= </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>findFacmNoMaxCloseNoFirst</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>findEntryDateRange</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">EntryDate &gt;= ,AND EntryDate &lt;= </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>篩選資料日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChoiceDate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>篩選資料時upd</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>findChoiceDateEq</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChoiceDate = ,AND LastUpdateEmpNo =</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChoiceSeq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>篩選序號</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChoiceSeq ASC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>領取記號</t>
+  </si>
+  <si>
+    <t>0:未領取
+1:已領取</t>
+  </si>
+  <si>
+    <t>DocNoE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>公文編號(迄)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>只保留後四碼流水號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -815,100 +775,131 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="一般 2 2 2" xfId="4" xr:uid="{BA0B71F0-E627-41CE-B85F-7F207E1C8562}"/>
+    <cellStyle name="一般 2 2 2 2" xfId="8" xr:uid="{9ED4A071-CCBD-4109-B14B-622D8FB00EF5}"/>
+    <cellStyle name="一般 2 2 3" xfId="6" xr:uid="{710A3154-1790-4FE9-95F3-4D4993822D96}"/>
     <cellStyle name="一般 2 3" xfId="3" xr:uid="{6070CA12-395A-4D07-A188-A72D48771677}"/>
+    <cellStyle name="一般 2 3 2" xfId="7" xr:uid="{B1CC1762-4A0C-49B1-916D-1E53D8BA2586}"/>
+    <cellStyle name="一般 2 4" xfId="5" xr:uid="{05DDC124-1D93-446F-84BA-A317BA6033D4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1244,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1263,10 +1254,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="7" t="s">
         <v>83</v>
       </c>
@@ -1278,8 +1269,8 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="11" t="s">
         <v>13</v>
       </c>
@@ -1291,10 +1282,10 @@
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="7" t="s">
         <v>66</v>
       </c>
@@ -1306,10 +1297,10 @@
       <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
       <c r="E4" s="13"/>
@@ -1317,10 +1308,10 @@
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="14" t="s">
         <v>47</v>
       </c>
@@ -1330,10 +1321,10 @@
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="14" t="s">
         <v>38</v>
       </c>
@@ -1343,10 +1334,10 @@
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="14" t="s">
         <v>39</v>
       </c>
@@ -1453,7 +1444,7 @@
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1516,7 +1507,7 @@
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
@@ -1527,7 +1518,7 @@
         <v>71</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>59</v>
@@ -1545,10 +1536,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>32</v>
@@ -1558,7 +1549,7 @@
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="194.4" x14ac:dyDescent="0.3">
@@ -1579,7 +1570,7 @@
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="17" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1608,10 +1599,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>32</v>
@@ -1687,7 +1678,7 @@
         <v>61</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>49</v>
@@ -1703,10 +1694,10 @@
         <v>18</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>49</v>
@@ -1722,7 +1713,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>88</v>
@@ -1774,245 +1765,184 @@
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="19">
+    <row r="29" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="23">
         <v>22</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="23">
+        <v>4</v>
+      </c>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="23">
+        <v>23</v>
+      </c>
+      <c r="B30" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C30" s="17" t="s">
         <v>57</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="17">
-        <v>18</v>
-      </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="19">
-        <v>23</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>48</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>50</v>
       </c>
       <c r="E30" s="17">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="19">
+      <c r="A31" s="23">
         <v>24</v>
       </c>
-      <c r="B31" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="20" t="s">
+      <c r="B31" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="17">
+        <v>100</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+    </row>
+    <row r="32" spans="1:7" s="21" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="23">
+        <v>25</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E32" s="25">
         <v>1</v>
       </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="19">
-        <v>25</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="20">
-        <v>2</v>
-      </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="19">
+      <c r="F32" s="24"/>
+      <c r="G32" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="23">
         <v>26</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="20">
-        <v>7</v>
+        <v>118</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="22">
+        <v>100</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
     </row>
-    <row r="34" spans="1:7" s="18" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="19">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="23">
         <v>27</v>
       </c>
-      <c r="B34" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="20" t="s">
+      <c r="B34" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="23">
         <v>28</v>
       </c>
-      <c r="E34" s="20">
-        <v>1</v>
-      </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="19">
-        <v>28</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" s="19">
-        <v>8</v>
-      </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="19">
+      <c r="B35" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="17">
+        <v>6</v>
+      </c>
+      <c r="F35" s="17"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="23">
         <v>29</v>
       </c>
-      <c r="B36" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" s="19">
-        <v>3</v>
-      </c>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
+      <c r="B36" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="19">
-        <v>31</v>
+      <c r="A37" s="23">
+        <v>30</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="17"/>
+        <v>32</v>
+      </c>
+      <c r="E37" s="17">
+        <v>6</v>
+      </c>
       <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="19">
-        <v>32</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="17">
-        <v>6</v>
-      </c>
-      <c r="F38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="19">
-        <v>33</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>33</v>
-      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
       <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="19">
-        <v>34</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="17">
-        <v>6</v>
-      </c>
-      <c r="F40" s="17"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2024,7 +1954,7 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2032,11 +1962,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2066,7 +1996,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2104,13 +2034,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2126,10 +2056,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>58</v>
@@ -2137,72 +2067,50 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacClose.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacClose.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D36A08-5B78-4711-8999-DD52F757858B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D60B9E-7CFE-470B-BD10-3AB3CF3E5A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="125">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -160,9 +160,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>戶號</t>
-  </si>
-  <si>
     <t>額度編號</t>
   </si>
   <si>
@@ -329,10 +326,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>CustNo,CloseNo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>FunCode</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -354,10 +347,6 @@
   </si>
   <si>
     <t>CloseNo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -472,10 +461,6 @@
   </si>
   <si>
     <t>結案日期(入帳日期)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>自動寫入時為0</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -586,6 +571,22 @@
   </si>
   <si>
     <t>只保留後四碼流水號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>依申請日期由1續編</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplDate,CloseNo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日曆日</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -804,11 +805,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -817,25 +818,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -844,9 +842,6 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -855,24 +850,6 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -915,9 +892,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -955,9 +932,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -990,26 +967,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1042,26 +1002,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1237,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1246,703 +1189,705 @@
     <col min="1" max="1" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37.88671875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="4"/>
+    <col min="8" max="16384" width="21.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>1</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="15">
+        <v>8</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>2</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="15">
+        <v>3</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>3</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="15">
+        <v>7</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>4</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="15">
+        <v>3</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
+        <v>5</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
+        <v>6</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="15">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
+        <v>7</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="C15" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
+        <v>8</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="15">
+        <v>8</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="162" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
+        <v>9</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="194.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
+        <v>10</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="15">
+        <v>2</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
+        <v>11</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="15">
+        <v>16</v>
+      </c>
+      <c r="F19" s="15">
+        <v>2</v>
+      </c>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
+        <v>12</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="15">
+        <v>1</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
+        <v>13</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="15">
+        <v>2</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
+        <v>14</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="15">
+        <v>8</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="15">
+        <v>15</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="15">
+        <v>15</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="15">
+        <v>16</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="15">
+        <v>15</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="15">
+        <v>17</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="15">
+        <v>15</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="15">
+        <v>18</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="15">
+        <v>8</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="15">
+        <v>19</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="15">
+        <v>10</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="15">
+        <v>20</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="15">
+        <v>7</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="15">
+        <v>21</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="15">
+        <v>4</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="15">
+        <v>22</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="15">
+        <v>18</v>
+      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="15">
+        <v>23</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="15">
+        <v>100</v>
+      </c>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="15">
+        <v>24</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="17">
+        <v>1</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="15">
+        <v>25</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="15">
+        <v>100</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="15">
+        <v>26</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="15">
+        <v>27</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="15">
+        <v>6</v>
+      </c>
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="15">
+        <v>28</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="15">
         <v>29</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="B37" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="15">
         <v>6</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
-        <v>1</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="17">
-        <v>7</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
-        <v>2</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="17">
-        <v>3</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
-        <v>3</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="17">
-        <v>3</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
-        <v>4</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="17">
-        <v>1</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
-        <v>5</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="19">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
-        <v>6</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="17">
-        <v>1</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
-        <v>7</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="17">
-        <v>8</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19">
-        <v>8</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="19">
-        <v>8</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="162" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
-        <v>9</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="194.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
-        <v>10</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="17">
-        <v>2</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
-        <v>11</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="17">
-        <v>16</v>
-      </c>
-      <c r="F19" s="17">
-        <v>2</v>
-      </c>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19">
-        <v>12</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="19">
-        <v>1</v>
-      </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="19">
-        <v>13</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="17">
-        <v>2</v>
-      </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="19">
-        <v>15</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="17">
-        <v>8</v>
-      </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="19">
-        <v>16</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="17">
-        <v>15</v>
-      </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="19">
-        <v>17</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="17">
-        <v>15</v>
-      </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="19">
-        <v>18</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="17">
-        <v>15</v>
-      </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="19">
-        <v>19</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="17">
-        <v>8</v>
-      </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="19">
-        <v>20</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="17">
-        <v>10</v>
-      </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="19">
-        <v>21</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="17">
-        <v>7</v>
-      </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
-        <v>22</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="23">
-        <v>4</v>
-      </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="23">
-        <v>23</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="17">
-        <v>18</v>
-      </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="23">
-        <v>24</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="17">
-        <v>100</v>
-      </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-    </row>
-    <row r="32" spans="1:7" s="21" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="23">
-        <v>25</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="25">
-        <v>1</v>
-      </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23">
-        <v>26</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="22">
-        <v>100</v>
-      </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="23">
-        <v>27</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="23">
-        <v>28</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="17">
-        <v>6</v>
-      </c>
-      <c r="F35" s="17"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="23">
-        <v>29</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="23">
-        <v>30</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="17">
-        <v>6</v>
-      </c>
-      <c r="F37" s="17"/>
+      <c r="F37" s="15"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1978,135 +1923,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacClose.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacClose.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D60B9E-7CFE-470B-BD10-3AB3CF3E5A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76570BBC-AAFD-4D51-9F0B-95C728FC639C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="127">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -588,6 +588,14 @@
   <si>
     <t>日曆日</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>findLastCloseNoFirst</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplDate =</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1180,7 +1188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1907,11 +1915,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2054,6 +2062,17 @@
         <v>101</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacClose.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacClose.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76570BBC-AAFD-4D51-9F0B-95C728FC639C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70C6E82-0834-471D-A170-732FE0BC7CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="128">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -454,10 +454,6 @@
   <si>
     <t>CustNo = ,AND FacmNo = ,AND FunCode ^i</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否領取清償證明(Y/N/'')</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>結案日期(入帳日期)</t>
@@ -596,6 +592,14 @@
   <si>
     <t>ApplDate =</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y/N/''</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否領取清償證明</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1188,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1238,7 +1242,7 @@
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>21</v>
@@ -1338,7 +1342,7 @@
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1359,7 +1363,7 @@
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1370,7 +1374,7 @@
         <v>46</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>52</v>
@@ -1471,7 +1475,7 @@
         <v>69</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>58</v>
@@ -1489,10 +1493,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>105</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>106</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>31</v>
@@ -1502,7 +1506,7 @@
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="194.4" x14ac:dyDescent="0.3">
@@ -1523,7 +1527,7 @@
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1555,7 +1559,7 @@
         <v>90</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>31</v>
@@ -1564,7 +1568,9 @@
         <v>1</v>
       </c>
       <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
+      <c r="G20" s="15" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
@@ -1631,7 +1637,7 @@
         <v>60</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>48</v>
@@ -1647,10 +1653,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>48</v>
@@ -1723,10 +1729,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>118</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>119</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>52</v>
@@ -1736,7 +1742,7 @@
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1782,10 +1788,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>115</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>116</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>27</v>
@@ -1795,7 +1801,7 @@
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1803,10 +1809,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>113</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>114</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>49</v>
@@ -1917,7 +1923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
@@ -1949,7 +1955,7 @@
         <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1993,7 +1999,7 @@
         <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2020,29 +2026,29 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>45</v>
@@ -2053,21 +2059,21 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>57</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacClose.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacClose.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70C6E82-0834-471D-A170-732FE0BC7CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4681F6D0-CBA3-40A7-9EEB-33C1F16DD48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -1192,7 +1192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -1923,9 +1923,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacClose.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacClose.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4681F6D0-CBA3-40A7-9EEB-33C1F16DD48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3489CB-A3D0-459C-B518-9702D337B293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -191,10 +191,6 @@
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -600,6 +596,9 @@
   <si>
     <t>是否領取清償證明</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -1192,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1214,7 +1213,7 @@
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>28</v>
@@ -1242,7 +1241,7 @@
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>21</v>
@@ -1253,7 +1252,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="12"/>
@@ -1268,7 +1267,7 @@
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="8"/>
@@ -1281,7 +1280,7 @@
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="8"/>
@@ -1294,7 +1293,7 @@
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="8"/>
@@ -1329,20 +1328,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" s="15">
         <v>8</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1350,20 +1349,20 @@
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="15">
         <v>3</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1371,13 +1370,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="15">
         <v>7</v>
@@ -1409,20 +1408,20 @@
         <v>5</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>51</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>52</v>
       </c>
       <c r="E13" s="15">
         <v>1</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1430,10 +1429,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>31</v>
@@ -1443,7 +1442,7 @@
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1451,20 +1450,20 @@
         <v>7</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="15">
         <v>1</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1472,20 +1471,20 @@
         <v>8</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="15">
         <v>8</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="162" x14ac:dyDescent="0.3">
@@ -1493,10 +1492,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>104</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>105</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>31</v>
@@ -1506,7 +1505,7 @@
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="194.4" x14ac:dyDescent="0.3">
@@ -1514,7 +1513,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>23</v>
@@ -1527,7 +1526,7 @@
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1535,13 +1534,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" s="15">
         <v>16</v>
@@ -1556,10 +1555,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>31</v>
@@ -1569,7 +1568,7 @@
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1577,7 +1576,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>25</v>
@@ -1596,13 +1595,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="15">
         <v>8</v>
@@ -1615,7 +1614,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>26</v>
@@ -1634,13 +1633,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" s="15">
         <v>15</v>
@@ -1653,13 +1652,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" s="15">
         <v>15</v>
@@ -1672,10 +1671,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>30</v>
@@ -1691,13 +1690,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" s="15">
         <v>10</v>
@@ -1710,13 +1709,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28" s="15">
         <v>7</v>
@@ -1729,20 +1728,20 @@
         <v>21</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>118</v>
-      </c>
       <c r="D29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E29" s="15">
         <v>4</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1750,13 +1749,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E30" s="15">
         <v>18</v>
@@ -1769,13 +1768,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E31" s="15">
         <v>100</v>
@@ -1788,10 +1787,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>114</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>115</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>27</v>
@@ -1801,7 +1800,7 @@
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1809,13 +1808,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="16" t="s">
-        <v>113</v>
-      </c>
       <c r="D33" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E33" s="15">
         <v>100</v>
@@ -1828,13 +1827,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
@@ -1844,7 +1843,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>10</v>
@@ -1862,13 +1861,13 @@
         <v>28</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
@@ -1878,7 +1877,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>12</v>
@@ -1923,7 +1922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
@@ -1949,134 +1948,134 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
